--- a/lost.xlsx
+++ b/lost.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP15"/>
+  <dimension ref="A1:AV46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,155 +501,185 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>代號_x</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>Class</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>一年最高股價_x</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>3日分數</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>5日分數</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>連續分數</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>距離最高點</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>代號</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>代號_y</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>名稱</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>成交</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>漲跌幅</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>2日累計漲跌(%)</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>3日累計漲跌(%)</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>5日累計漲跌(%)</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>10日累計漲跌(%)</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>一個月累計漲跌(%)</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>三個月累計漲跌(%)</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>半年累計漲跌(%)</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>一年累計漲跌(%)</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>一個月最低股價</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>三個月最低股價</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>半年最低股價</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>一年最低股價</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>一個月最高股價</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>三個月最高股價</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>半年最高股價</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>一年最高股價_y</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>三大法人3日累計買賣超佔成交(%)</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>三大法人5日累計買賣超佔成交(%)</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>券資比3日增減</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>券資比5日增減</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>_merge</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>10%</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>紘康(6457)</t>
+          <t>創惟(6104)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -658,130 +688,160 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>1586</v>
+        <v>1531</v>
       </c>
       <c r="G2" t="n">
-        <v>226.5</v>
+        <v>170</v>
       </c>
       <c r="H2" t="n">
-        <v>206.5</v>
+        <v>195</v>
       </c>
       <c r="I2" t="n">
-        <v>1440</v>
+        <v>1749</v>
       </c>
       <c r="J2" t="n">
-        <v>-146</v>
+        <v>218</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.0921</v>
+        <v>0.1424</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
       </c>
       <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>台幣</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>6104</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>204.5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T2" t="n">
         <v>4</v>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>台幣</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="n">
-        <v>-4</v>
-      </c>
-      <c r="R2" t="n">
-        <v>-4</v>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>LOST</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>6457</t>
+          <t>KEEP</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>紘康</t>
-        </is>
-      </c>
-      <c r="W2" t="n">
-        <v>206.5</v>
-      </c>
-      <c r="X2" t="n">
-        <v>-3.5</v>
+          <t>95.35%</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>6104</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>創惟</t>
+        </is>
       </c>
       <c r="Y2" t="n">
-        <v>-0.96</v>
+        <v>195</v>
       </c>
       <c r="Z2" t="n">
-        <v>-3.95</v>
+        <v>5.98</v>
       </c>
       <c r="AA2" t="n">
-        <v>-11</v>
+        <v>4</v>
       </c>
       <c r="AB2" t="n">
-        <v>-2.59</v>
+        <v>6.56</v>
       </c>
       <c r="AC2" t="n">
-        <v>21.8</v>
+        <v>0.52</v>
       </c>
       <c r="AD2" t="n">
-        <v>30.3</v>
+        <v>3.72</v>
       </c>
       <c r="AE2" t="n">
-        <v>37.7</v>
+        <v>40.8</v>
       </c>
       <c r="AF2" t="n">
-        <v>195</v>
+        <v>41.8</v>
       </c>
       <c r="AG2" t="n">
-        <v>158.5</v>
+        <v>216</v>
       </c>
       <c r="AH2" t="n">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="AI2" t="n">
         <v>139</v>
       </c>
       <c r="AJ2" t="n">
-        <v>69.8</v>
+        <v>112</v>
       </c>
       <c r="AK2" t="n">
-        <v>239.5</v>
+        <v>60.6</v>
       </c>
       <c r="AL2" t="n">
-        <v>-3.57</v>
+        <v>48</v>
       </c>
       <c r="AM2" t="n">
-        <v>-1.32</v>
-      </c>
-      <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr">
+        <v>204.5</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>204.5</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>204.5</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>204.5</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-1.34</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-4.06</v>
+      </c>
+      <c r="AU2" t="inlineStr">
         <is>
           <t>both</t>
         </is>
+      </c>
+      <c r="AV2" t="n">
+        <v>184.05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>萬泰科(6190)</t>
+          <t>金利(5383)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -790,161 +850,179 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" t="n">
-        <v>1475</v>
+        <v>1481</v>
       </c>
       <c r="G3" t="n">
-        <v>38.8</v>
+        <v>40</v>
       </c>
       <c r="H3" t="n">
-        <v>34</v>
+        <v>49.1</v>
       </c>
       <c r="I3" t="n">
-        <v>1288</v>
+        <v>1810</v>
       </c>
       <c r="J3" t="n">
-        <v>-187</v>
+        <v>329</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.1268</v>
+        <v>0.2221</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
       <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>台幣</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>5383</v>
+      </c>
+      <c r="P3" t="n">
         <v>3</v>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>台幣</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>49.1</v>
       </c>
       <c r="R3" t="n">
-        <v>5</v>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>LOST</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="n">
+        <v>8</v>
+      </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>6190</t>
+          <t>KEEP</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>萬泰科</t>
-        </is>
-      </c>
-      <c r="W3" t="n">
-        <v>34</v>
-      </c>
-      <c r="X3" t="n">
-        <v>-8.48</v>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>5383</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>金利</t>
+        </is>
       </c>
       <c r="Y3" t="n">
-        <v>-9.210000000000001</v>
+        <v>49.1</v>
       </c>
       <c r="Z3" t="n">
-        <v>-7.61</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="AA3" t="n">
-        <v>8.449999999999999</v>
+        <v>20.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>29</v>
+        <v>20.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>47.2</v>
+        <v>15.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>38.2</v>
+        <v>41.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>35.7</v>
+        <v>57.4</v>
       </c>
       <c r="AF3" t="n">
-        <v>101</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="AG3" t="n">
-        <v>23.3</v>
+        <v>109</v>
       </c>
       <c r="AH3" t="n">
-        <v>22.25</v>
+        <v>138</v>
       </c>
       <c r="AI3" t="n">
-        <v>21.85</v>
+        <v>29.4</v>
       </c>
       <c r="AJ3" t="n">
-        <v>16.55</v>
+        <v>25.9</v>
       </c>
       <c r="AK3" t="n">
-        <v>39.7</v>
+        <v>22.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.76</v>
+        <v>19.2</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.16</v>
+        <v>49.1</v>
       </c>
       <c r="AN3" t="n">
-        <v>23.1</v>
+        <v>49.1</v>
       </c>
       <c r="AO3" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="AP3" t="inlineStr">
+        <v>49.1</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr">
         <is>
           <t>both</t>
         </is>
+      </c>
+      <c r="AV3" t="n">
+        <v>44.19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰藝(8289)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>現股</t>
-        </is>
-      </c>
+          <t>達興材料(5234)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F4" t="n">
-        <v>1458</v>
+        <v>1567</v>
       </c>
       <c r="G4" t="n">
-        <v>38.35</v>
+        <v>130.58</v>
       </c>
       <c r="H4" t="n">
-        <v>39.95</v>
+        <v>139</v>
       </c>
       <c r="I4" t="n">
-        <v>1513</v>
+        <v>1668</v>
       </c>
       <c r="J4" t="n">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0377</v>
+        <v>0.06</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -952,108 +1030,130 @@
       <c r="M4" t="n">
         <v>4</v>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>台幣</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>5234</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
       <c r="Q4" t="n">
+        <v>140.5</v>
+      </c>
+      <c r="R4" t="n">
         <v>1</v>
       </c>
-      <c r="R4" t="n">
-        <v>-5</v>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>LOST</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>8289</t>
+          <t>KEEP</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>泰藝</t>
-        </is>
-      </c>
-      <c r="W4" t="n">
-        <v>39.95</v>
-      </c>
-      <c r="X4" t="n">
-        <v>-4.88</v>
+          <t>98.92999999999999%</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>5234</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>達興材料</t>
+        </is>
       </c>
       <c r="Y4" t="n">
-        <v>4.58</v>
+        <v>139</v>
       </c>
       <c r="Z4" t="n">
-        <v>6.39</v>
+        <v>3.35</v>
       </c>
       <c r="AA4" t="n">
-        <v>-2.44</v>
+        <v>7.34</v>
       </c>
       <c r="AB4" t="n">
-        <v>6.25</v>
+        <v>9.02</v>
       </c>
       <c r="AC4" t="n">
-        <v>28.9</v>
+        <v>19.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>12.9</v>
+        <v>19.3</v>
       </c>
       <c r="AE4" t="n">
-        <v>118</v>
+        <v>31.8</v>
       </c>
       <c r="AF4" t="n">
-        <v>243</v>
+        <v>55.8</v>
       </c>
       <c r="AG4" t="n">
-        <v>29.2</v>
+        <v>58</v>
       </c>
       <c r="AH4" t="n">
-        <v>26.2</v>
+        <v>65.3</v>
       </c>
       <c r="AI4" t="n">
-        <v>16.75</v>
+        <v>102.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>11.4</v>
+        <v>85.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>46.2</v>
+        <v>84</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0.76</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="AM4" t="n">
-        <v>-3.2</v>
+        <v>140.5</v>
       </c>
       <c r="AN4" t="n">
-        <v>1.16</v>
+        <v>140.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.59</v>
-      </c>
-      <c r="AP4" t="inlineStr">
+        <v>140.5</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>140.5</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-3.97</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-1.52</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="AU4" t="inlineStr">
         <is>
           <t>both</t>
         </is>
+      </c>
+      <c r="AV4" t="n">
+        <v>126.45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>久正(6167)</t>
+          <t>德微(3675)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1062,157 +1162,183 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>1306</v>
+        <v>1418</v>
       </c>
       <c r="G5" t="n">
-        <v>13.05</v>
+        <v>283.5</v>
       </c>
       <c r="H5" t="n">
-        <v>12.85</v>
+        <v>278.5</v>
       </c>
       <c r="I5" t="n">
-        <v>1281</v>
+        <v>1387</v>
       </c>
       <c r="J5" t="n">
-        <v>-25</v>
+        <v>-31</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.0191</v>
+        <v>-0.0219</v>
       </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
           <t>台幣</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>3675</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.8</v>
+      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>LOST</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="n">
+        <v>4</v>
+      </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>6167</t>
+          <t>KEEP</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>久正</t>
-        </is>
-      </c>
-      <c r="W5" t="n">
-        <v>12.85</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.39</v>
+          <t>90.13%</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>3675</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>德微</t>
+        </is>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>278.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>-2.65</v>
+        <v>-1.59</v>
       </c>
       <c r="AA5" t="n">
-        <v>-9.19</v>
+        <v>-0.89</v>
       </c>
       <c r="AB5" t="n">
-        <v>26.6</v>
+        <v>-0.71</v>
       </c>
       <c r="AC5" t="n">
-        <v>38.2</v>
+        <v>5.49</v>
       </c>
       <c r="AD5" t="n">
-        <v>43.7</v>
+        <v>13.7</v>
       </c>
       <c r="AE5" t="n">
-        <v>51</v>
+        <v>10.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>77.2</v>
+        <v>60.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>9.279999999999999</v>
+        <v>170</v>
       </c>
       <c r="AH5" t="n">
-        <v>8.41</v>
+        <v>252</v>
       </c>
       <c r="AI5" t="n">
-        <v>8.26</v>
+        <v>227.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="AK5" t="n">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="AL5" t="n">
-        <v>2.1</v>
+        <v>64.5</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AN5" t="inlineStr"/>
-      <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="inlineStr">
+        <v>308</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>309</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>309</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>309</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-1.96</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AU5" t="inlineStr">
         <is>
           <t>both</t>
         </is>
+      </c>
+      <c r="AV5" t="n">
+        <v>278.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>興農(1712)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>現股</t>
-        </is>
-      </c>
+          <t>立衛(5344)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F6" t="n">
-        <v>1499</v>
+        <v>1516</v>
       </c>
       <c r="G6" t="n">
-        <v>27.75</v>
+        <v>32.26</v>
       </c>
       <c r="H6" t="n">
-        <v>27.8</v>
+        <v>34.65</v>
       </c>
       <c r="I6" t="n">
-        <v>1496</v>
+        <v>1628</v>
       </c>
       <c r="J6" t="n">
-        <v>-3</v>
+        <v>106</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.002</v>
+        <v>0.0699</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -1220,380 +1346,450 @@
       <c r="M6" t="n">
         <v>4</v>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>台幣</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="n">
+        <v>5344</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
       <c r="Q6" t="n">
-        <v>-1</v>
+        <v>38.1</v>
       </c>
       <c r="R6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>LOST</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>4</v>
+      </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>1712</t>
+          <t>KEEP</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>興農</t>
-        </is>
-      </c>
-      <c r="W6" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="X6" t="n">
-        <v>-2.63</v>
+          <t>90.94%</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>5344</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>立衛</t>
+        </is>
       </c>
       <c r="Y6" t="n">
-        <v>-2.46</v>
+        <v>34.65</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0.71</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>-2.8</v>
+        <v>10</v>
       </c>
       <c r="AB6" t="n">
-        <v>5.1</v>
+        <v>20.9</v>
       </c>
       <c r="AC6" t="n">
-        <v>14.4</v>
+        <v>25.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>22.2</v>
+        <v>41.1</v>
       </c>
       <c r="AE6" t="n">
-        <v>26.1</v>
+        <v>72</v>
       </c>
       <c r="AF6" t="n">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="AG6" t="n">
-        <v>24.15</v>
+        <v>137</v>
       </c>
       <c r="AH6" t="n">
-        <v>22.55</v>
+        <v>133</v>
       </c>
       <c r="AI6" t="n">
-        <v>21.9</v>
+        <v>19.55</v>
       </c>
       <c r="AJ6" t="n">
-        <v>20.25</v>
+        <v>13.2</v>
       </c>
       <c r="AK6" t="n">
-        <v>28.95</v>
+        <v>13.2</v>
       </c>
       <c r="AL6" t="n">
-        <v>17.1</v>
+        <v>12</v>
       </c>
       <c r="AM6" t="n">
-        <v>10.5</v>
+        <v>38.1</v>
       </c>
       <c r="AN6" t="n">
-        <v>-0.5</v>
+        <v>38.1</v>
       </c>
       <c r="AO6" t="n">
-        <v>-0.05</v>
-      </c>
-      <c r="AP6" t="inlineStr">
+        <v>38.1</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr">
         <is>
           <t>both</t>
         </is>
+      </c>
+      <c r="AV6" t="n">
+        <v>34.29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>台勝科(3532)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>現股</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>12</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2921</v>
+      </c>
+      <c r="G7" t="n">
+        <v>243.25</v>
+      </c>
+      <c r="H7" t="n">
+        <v>298</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3564</v>
+      </c>
+      <c r="J7" t="n">
+        <v>643</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.2201</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2</v>
+      </c>
+      <c r="M7" t="n">
+        <v>10</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>台幣</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>3532</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>298</v>
+      </c>
+      <c r="R7" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>25</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>加高(8182)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>現股</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>25</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1518</v>
-      </c>
-      <c r="G7" t="n">
-        <v>60.7</v>
-      </c>
-      <c r="H7" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1415</v>
-      </c>
-      <c r="J7" t="n">
-        <v>-103</v>
-      </c>
-      <c r="K7" t="n">
-        <v>-0.0679</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>台幣</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="n">
-        <v>-5</v>
-      </c>
-      <c r="R7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>LOST</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>10</v>
+      </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>8182</t>
+          <t>KEEP</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>加高</t>
-        </is>
-      </c>
-      <c r="W7" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="X7" t="n">
-        <v>-3.89</v>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>3532</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>台勝科</t>
+        </is>
       </c>
       <c r="Y7" t="n">
-        <v>-0.7</v>
+        <v>298</v>
       </c>
       <c r="Z7" t="n">
-        <v>-2.41</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="AA7" t="n">
-        <v>-2.07</v>
+        <v>14.4</v>
       </c>
       <c r="AB7" t="n">
-        <v>-5.33</v>
+        <v>16.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>32.7</v>
+        <v>12.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>13.1</v>
+        <v>28.4</v>
       </c>
       <c r="AE7" t="n">
-        <v>48.9</v>
+        <v>81.2</v>
       </c>
       <c r="AF7" t="n">
-        <v>100</v>
+        <v>70.3</v>
       </c>
       <c r="AG7" t="n">
-        <v>42.4</v>
+        <v>68.8</v>
       </c>
       <c r="AH7" t="n">
-        <v>40.2</v>
+        <v>106</v>
       </c>
       <c r="AI7" t="n">
-        <v>36.2</v>
+        <v>164.5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>26.05</v>
+        <v>138.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>64.5</v>
+        <v>138.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>-15.4</v>
+        <v>124.5</v>
       </c>
       <c r="AM7" t="n">
-        <v>-4.49</v>
+        <v>298</v>
       </c>
       <c r="AN7" t="n">
-        <v>-0.41</v>
+        <v>298</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AP7" t="inlineStr">
+        <v>298</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>298</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="AU7" t="inlineStr">
         <is>
           <t>both</t>
         </is>
+      </c>
+      <c r="AV7" t="n">
+        <v>268.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>華擎(3515)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>現股</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>15</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>康聯訊(3672)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>現股</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>39</v>
-      </c>
       <c r="F8" t="n">
-        <v>1498</v>
+        <v>1489</v>
       </c>
       <c r="G8" t="n">
-        <v>38.4</v>
+        <v>248</v>
       </c>
       <c r="H8" t="n">
-        <v>34.9</v>
+        <v>286.5</v>
       </c>
       <c r="I8" t="n">
-        <v>1356</v>
+        <v>1713</v>
       </c>
       <c r="J8" t="n">
-        <v>-142</v>
+        <v>224</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0948</v>
+        <v>0.1504</v>
       </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
           <t>台幣</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
+      <c r="O8" t="n">
+        <v>3515</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
       <c r="Q8" t="n">
-        <v>-5</v>
+        <v>286.5</v>
       </c>
       <c r="R8" t="n">
-        <v>-5</v>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>LOST</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="n">
+        <v>10</v>
+      </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>3672</t>
+          <t>KEEP</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>康聯訊</t>
-        </is>
-      </c>
-      <c r="W8" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="X8" t="n">
-        <v>-8.16</v>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>3515</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>華擎</t>
+        </is>
       </c>
       <c r="Y8" t="n">
-        <v>-6.18</v>
+        <v>286.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>-5.03</v>
+        <v>9.98</v>
       </c>
       <c r="AA8" t="n">
-        <v>-4.9</v>
+        <v>16.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>41.3</v>
+        <v>14.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>47.9</v>
+        <v>14.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>148</v>
+        <v>24.8</v>
       </c>
       <c r="AE8" t="n">
-        <v>135</v>
+        <v>46.9</v>
       </c>
       <c r="AF8" t="n">
-        <v>57.6</v>
+        <v>106</v>
       </c>
       <c r="AG8" t="n">
-        <v>22.95</v>
+        <v>69.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>14</v>
+        <v>69.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>13.4</v>
+        <v>193.5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>13.4</v>
+        <v>137.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>39.5</v>
+        <v>125</v>
       </c>
       <c r="AL8" t="n">
-        <v>-2.63</v>
+        <v>125</v>
       </c>
       <c r="AM8" t="n">
-        <v>-1.34</v>
+        <v>286.5</v>
       </c>
       <c r="AN8" t="n">
-        <v>-2.84</v>
+        <v>286.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>-3.3</v>
-      </c>
-      <c r="AP8" t="inlineStr">
+        <v>286.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>286.5</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU8" t="inlineStr">
         <is>
           <t>both</t>
         </is>
+      </c>
+      <c r="AV8" t="n">
+        <v>257.85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>利機(3444)</t>
+          <t>台嘉碩(3221)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1602,25 +1798,25 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F9" t="n">
-        <v>1508</v>
+        <v>1492</v>
       </c>
       <c r="G9" t="n">
-        <v>68.5</v>
+        <v>46.6</v>
       </c>
       <c r="H9" t="n">
-        <v>72</v>
+        <v>42.85</v>
       </c>
       <c r="I9" t="n">
-        <v>1579</v>
+        <v>1366</v>
       </c>
       <c r="J9" t="n">
-        <v>71</v>
+        <v>-126</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0471</v>
+        <v>-0.08450000000000001</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
@@ -1633,103 +1829,129 @@
           <t>台幣</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
+      <c r="O9" t="n">
+        <v>3221</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.8</v>
+      </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>47.6</v>
       </c>
       <c r="R9" t="n">
-        <v>3</v>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>LOST</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr"/>
+        <v>-5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-8</v>
+      </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>3444</t>
+          <t>KEEP</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>利機</t>
-        </is>
-      </c>
-      <c r="W9" t="n">
-        <v>72</v>
-      </c>
-      <c r="X9" t="n">
-        <v>-6.86</v>
+          <t>90.02%</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>3221</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>台嘉碩</t>
+        </is>
       </c>
       <c r="Y9" t="n">
-        <v>-9.09</v>
+        <v>42.85</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.84</v>
+        <v>-1.49</v>
       </c>
       <c r="AB9" t="n">
-        <v>35.6</v>
+        <v>-1.38</v>
       </c>
       <c r="AC9" t="n">
-        <v>75.2</v>
+        <v>-1.95</v>
       </c>
       <c r="AD9" t="n">
-        <v>94.59999999999999</v>
+        <v>6.46</v>
       </c>
       <c r="AE9" t="n">
-        <v>91.7</v>
+        <v>23.8</v>
       </c>
       <c r="AF9" t="n">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="AG9" t="n">
-        <v>40.85</v>
+        <v>93</v>
       </c>
       <c r="AH9" t="n">
-        <v>36.9</v>
+        <v>87.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>35.45</v>
+        <v>33.75</v>
       </c>
       <c r="AJ9" t="n">
-        <v>31.5</v>
+        <v>26.1</v>
       </c>
       <c r="AK9" t="n">
-        <v>79.2</v>
+        <v>21.95</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.79</v>
+        <v>17.75</v>
       </c>
       <c r="AM9" t="n">
-        <v>3.71</v>
+        <v>47.6</v>
       </c>
       <c r="AN9" t="n">
-        <v>-0.7</v>
+        <v>47.6</v>
       </c>
       <c r="AO9" t="n">
-        <v>-14.3</v>
-      </c>
-      <c r="AP9" t="inlineStr">
+        <v>47.6</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>-5.15</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>-3.01</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>-2.6</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AU9" t="inlineStr">
         <is>
           <t>both</t>
         </is>
+      </c>
+      <c r="AV9" t="n">
+        <v>42.84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>弘憶股(3312)</t>
+          <t>亞信(3169)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1738,25 +1960,25 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
-        <v>1500</v>
+        <v>1588</v>
       </c>
       <c r="G10" t="n">
-        <v>28.3</v>
+        <v>264.5</v>
       </c>
       <c r="H10" t="n">
-        <v>25.65</v>
+        <v>274</v>
       </c>
       <c r="I10" t="n">
-        <v>1354</v>
+        <v>1639</v>
       </c>
       <c r="J10" t="n">
-        <v>-146</v>
+        <v>51</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0973</v>
+        <v>0.0321</v>
       </c>
       <c r="L10" t="n">
         <v>1</v>
@@ -1769,103 +1991,129 @@
           <t>台幣</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
+      <c r="O10" t="n">
+        <v>3169</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.9</v>
+      </c>
       <c r="Q10" t="n">
+        <v>299.5</v>
+      </c>
+      <c r="R10" t="n">
         <v>1</v>
       </c>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>LOST</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2</v>
+      </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>3312</t>
+          <t>KEEP</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>弘憶股</t>
-        </is>
-      </c>
-      <c r="W10" t="n">
-        <v>25.65</v>
-      </c>
-      <c r="X10" t="n">
-        <v>-10</v>
+          <t>91.49000000000001%</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>3169</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>亞信</t>
+        </is>
       </c>
       <c r="Y10" t="n">
-        <v>-10.3</v>
+        <v>274</v>
       </c>
       <c r="Z10" t="n">
-        <v>-1.35</v>
+        <v>-4.2</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.39</v>
+        <v>-5.52</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.460000000000001</v>
+        <v>0.37</v>
       </c>
       <c r="AC10" t="n">
-        <v>18.2</v>
+        <v>1.67</v>
       </c>
       <c r="AD10" t="n">
-        <v>12</v>
+        <v>1.48</v>
       </c>
       <c r="AE10" t="n">
-        <v>25.1</v>
+        <v>59.8</v>
       </c>
       <c r="AF10" t="n">
-        <v>73.3</v>
+        <v>113</v>
       </c>
       <c r="AG10" t="n">
-        <v>21.65</v>
+        <v>101</v>
       </c>
       <c r="AH10" t="n">
-        <v>18.6</v>
+        <v>552</v>
       </c>
       <c r="AI10" t="n">
-        <v>18.6</v>
+        <v>174</v>
       </c>
       <c r="AJ10" t="n">
-        <v>14.05</v>
+        <v>112</v>
       </c>
       <c r="AK10" t="n">
-        <v>29.05</v>
+        <v>112</v>
       </c>
       <c r="AL10" t="n">
-        <v>2.51</v>
+        <v>41.3</v>
       </c>
       <c r="AM10" t="n">
-        <v>2.39</v>
+        <v>299.5</v>
       </c>
       <c r="AN10" t="n">
-        <v>1.34</v>
+        <v>299.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AP10" t="inlineStr">
+        <v>299.5</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>299.5</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>-1.83</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>-1.79</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AU10" t="inlineStr">
         <is>
           <t>both</t>
         </is>
+      </c>
+      <c r="AV10" t="n">
+        <v>269.55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>台嘉碩(3221)</t>
+          <t>欣興(3037)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1874,134 +2122,160 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>1492</v>
+        <v>1481</v>
       </c>
       <c r="G11" t="n">
-        <v>46.6</v>
+        <v>211.5</v>
       </c>
       <c r="H11" t="n">
-        <v>41.1</v>
+        <v>221</v>
       </c>
       <c r="I11" t="n">
-        <v>1311</v>
+        <v>1542</v>
       </c>
       <c r="J11" t="n">
-        <v>-181</v>
+        <v>61</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.1213</v>
+        <v>0.0412</v>
       </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
           <t>台幣</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
+      <c r="O11" t="n">
+        <v>3037</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.9</v>
+      </c>
       <c r="Q11" t="n">
-        <v>-1</v>
+        <v>229.5</v>
       </c>
       <c r="R11" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>LOST</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="n">
+        <v>6</v>
+      </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>3221</t>
+          <t>KEEP</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>台嘉碩</t>
-        </is>
-      </c>
-      <c r="W11" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="X11" t="n">
-        <v>-5.95</v>
+          <t>96.3%</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>3037</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>欣興</t>
+        </is>
       </c>
       <c r="Y11" t="n">
-        <v>0.61</v>
+        <v>221</v>
       </c>
       <c r="Z11" t="n">
-        <v>4.71</v>
+        <v>2.08</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.99</v>
+        <v>0.91</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0.72</v>
+        <v>1.61</v>
       </c>
       <c r="AC11" t="n">
-        <v>29.2</v>
+        <v>-1.12</v>
       </c>
       <c r="AD11" t="n">
-        <v>23.2</v>
+        <v>11.3</v>
       </c>
       <c r="AE11" t="n">
-        <v>84.7</v>
+        <v>16.3</v>
       </c>
       <c r="AF11" t="n">
-        <v>77.90000000000001</v>
+        <v>54.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>31.7</v>
+        <v>74</v>
       </c>
       <c r="AH11" t="n">
-        <v>26.1</v>
+        <v>162</v>
       </c>
       <c r="AI11" t="n">
-        <v>21</v>
+        <v>189</v>
       </c>
       <c r="AJ11" t="n">
-        <v>17.75</v>
+        <v>115</v>
       </c>
       <c r="AK11" t="n">
-        <v>47.6</v>
+        <v>115</v>
       </c>
       <c r="AL11" t="n">
-        <v>-4.82</v>
+        <v>80</v>
       </c>
       <c r="AM11" t="n">
-        <v>-4.69</v>
+        <v>229.5</v>
       </c>
       <c r="AN11" t="n">
-        <v>-0.22</v>
+        <v>229.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.26</v>
-      </c>
-      <c r="AP11" t="inlineStr">
+        <v>229.5</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>229.5</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU11" t="inlineStr">
         <is>
           <t>both</t>
         </is>
+      </c>
+      <c r="AV11" t="n">
+        <v>206.55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>建碁(3046)</t>
+          <t>嘉晶(3016)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2010,270 +2284,322 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="F12" t="n">
-        <v>1494</v>
+        <v>2318</v>
       </c>
       <c r="G12" t="n">
-        <v>39.3</v>
+        <v>144.72</v>
       </c>
       <c r="H12" t="n">
-        <v>39</v>
+        <v>150.5</v>
       </c>
       <c r="I12" t="n">
-        <v>1477</v>
+        <v>2399</v>
       </c>
       <c r="J12" t="n">
-        <v>-17</v>
+        <v>81</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0114</v>
+        <v>0.0349</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
           <t>台幣</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
+      <c r="O12" t="n">
+        <v>3016</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.9</v>
+      </c>
       <c r="Q12" t="n">
-        <v>4</v>
+        <v>154.5</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>LOST</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr"/>
+        <v>-5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T12" t="n">
+        <v>-6</v>
+      </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>3046</t>
+          <t>KEEP</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>建碁</t>
-        </is>
-      </c>
-      <c r="W12" t="n">
-        <v>39</v>
-      </c>
-      <c r="X12" t="n">
-        <v>-5.57</v>
+          <t>97.41%</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>3016</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>嘉晶</t>
+        </is>
       </c>
       <c r="Y12" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>-1.63</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>82</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>118</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>154.5</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>154.5</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>154.5</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>154.5</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>-0.72</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>-2.62</v>
+      </c>
+      <c r="AT12" t="n">
         <v>-5.45</v>
       </c>
-      <c r="Z12" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>-3.35</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>58.2</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>58.9</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>156</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>14.65</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>43.3</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP12" t="inlineStr">
+      <c r="AU12" t="inlineStr">
         <is>
           <t>both</t>
         </is>
+      </c>
+      <c r="AV12" t="n">
+        <v>139.05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>怡利電(2497)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>現股</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>41</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2827</v>
+      </c>
+      <c r="G13" t="n">
+        <v>68.91</v>
+      </c>
+      <c r="H13" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3330</v>
+      </c>
+      <c r="J13" t="n">
+        <v>503</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.1779</v>
+      </c>
+      <c r="L13" t="n">
         <v>2</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>光磊(2340)</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>現股</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>29</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1497</v>
-      </c>
-      <c r="G13" t="n">
-        <v>51.6</v>
-      </c>
-      <c r="H13" t="n">
-        <v>58.9</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1702</v>
-      </c>
-      <c r="J13" t="n">
-        <v>205</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1369</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
       <c r="M13" t="n">
+        <v>9</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>台幣</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>2497</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>82</v>
+      </c>
+      <c r="R13" t="n">
         <v>5</v>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>台幣</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>LOST</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="n">
+        <v>10</v>
+      </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>2340</t>
+          <t>KEEP</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>光磊</t>
-        </is>
-      </c>
-      <c r="W13" t="n">
-        <v>58.9</v>
-      </c>
-      <c r="X13" t="n">
-        <v>-0.67</v>
+          <t>99.39%</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>2497</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>怡利電</t>
+        </is>
       </c>
       <c r="Y13" t="n">
-        <v>0.86</v>
+        <v>81.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.38</v>
+        <v>7.1</v>
       </c>
       <c r="AA13" t="n">
-        <v>-1.51</v>
+        <v>5.03</v>
       </c>
       <c r="AB13" t="n">
-        <v>15.7</v>
+        <v>15.4</v>
       </c>
       <c r="AC13" t="n">
-        <v>28</v>
+        <v>18.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>68</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="AE13" t="n">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="AF13" t="n">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="AG13" t="n">
-        <v>41.65</v>
+        <v>185</v>
       </c>
       <c r="AH13" t="n">
-        <v>29.3</v>
+        <v>181</v>
       </c>
       <c r="AI13" t="n">
-        <v>24.85</v>
+        <v>38.5</v>
       </c>
       <c r="AJ13" t="n">
-        <v>21.85</v>
+        <v>28.6</v>
       </c>
       <c r="AK13" t="n">
-        <v>66.2</v>
+        <v>27.9</v>
       </c>
       <c r="AL13" t="n">
-        <v>-4.14</v>
+        <v>25.4</v>
       </c>
       <c r="AM13" t="n">
-        <v>-1.23</v>
+        <v>82</v>
       </c>
       <c r="AN13" t="n">
-        <v>1.15</v>
+        <v>82</v>
       </c>
       <c r="AO13" t="n">
-        <v>-0.43</v>
-      </c>
-      <c r="AP13" t="inlineStr">
+        <v>82</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>82</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AU13" t="inlineStr">
         <is>
           <t>both</t>
         </is>
+      </c>
+      <c r="AV13" t="n">
+        <v>73.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>三晃(1721)</t>
+          <t>台光電(2383)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2282,134 +2608,160 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
-        <v>1438</v>
+        <v>1594</v>
       </c>
       <c r="G14" t="n">
-        <v>28.75</v>
+        <v>265.5</v>
       </c>
       <c r="H14" t="n">
-        <v>29.1</v>
+        <v>280</v>
       </c>
       <c r="I14" t="n">
-        <v>1450</v>
+        <v>1674</v>
       </c>
       <c r="J14" t="n">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0083</v>
+        <v>0.0502</v>
       </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
           <t>台幣</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
+      <c r="O14" t="n">
+        <v>2383</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.9</v>
+      </c>
       <c r="Q14" t="n">
-        <v>5</v>
+        <v>293.5</v>
       </c>
       <c r="R14" t="n">
         <v>5</v>
       </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>LOST</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr"/>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="n">
+        <v>8</v>
+      </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>1721</t>
+          <t>KEEP</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>三晃</t>
-        </is>
-      </c>
-      <c r="W14" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="X14" t="n">
-        <v>-4.43</v>
+          <t>95.39999999999999%</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>2383</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>台光電</t>
+        </is>
       </c>
       <c r="Y14" t="n">
-        <v>5.05</v>
+        <v>280</v>
       </c>
       <c r="Z14" t="n">
-        <v>15.5</v>
+        <v>0.72</v>
       </c>
       <c r="AA14" t="n">
-        <v>16.9</v>
+        <v>1.63</v>
       </c>
       <c r="AB14" t="n">
-        <v>25.4</v>
+        <v>2</v>
       </c>
       <c r="AC14" t="n">
-        <v>84.2</v>
+        <v>0.18</v>
       </c>
       <c r="AD14" t="n">
-        <v>218</v>
+        <v>14.3</v>
       </c>
       <c r="AE14" t="n">
-        <v>187</v>
+        <v>21.7</v>
       </c>
       <c r="AF14" t="n">
-        <v>172</v>
+        <v>26.4</v>
       </c>
       <c r="AG14" t="n">
-        <v>15.2</v>
+        <v>56.4</v>
       </c>
       <c r="AH14" t="n">
-        <v>8.99</v>
+        <v>79.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>8.949999999999999</v>
+        <v>226.5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>8.949999999999999</v>
+        <v>200</v>
       </c>
       <c r="AK14" t="n">
-        <v>33.45</v>
+        <v>182</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.8</v>
+        <v>141.5</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.91</v>
+        <v>293.5</v>
       </c>
       <c r="AN14" t="n">
-        <v>2.87</v>
+        <v>293.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="AP14" t="inlineStr">
+        <v>293.5</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>293.5</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="AU14" t="inlineStr">
         <is>
           <t>both</t>
         </is>
+      </c>
+      <c r="AV14" t="n">
+        <v>264.15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>金利(5383)</t>
+          <t>佳能(2374)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2418,25 +2770,25 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="F15" t="n">
         <v>1481</v>
       </c>
       <c r="G15" t="n">
-        <v>40</v>
+        <v>23.5</v>
       </c>
       <c r="H15" t="n">
-        <v>40.5</v>
+        <v>23.9</v>
       </c>
       <c r="I15" t="n">
-        <v>1493</v>
+        <v>1500</v>
       </c>
       <c r="J15" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0081</v>
+        <v>0.0128</v>
       </c>
       <c r="L15" t="n">
         <v>1</v>
@@ -2449,87 +2801,4287 @@
           <t>台幣</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
+      <c r="O15" t="n">
+        <v>2374</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.8</v>
+      </c>
       <c r="Q15" t="n">
+        <v>25.45</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2</v>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>93.91000000000001%</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>2374</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>佳能</t>
+        </is>
+      </c>
+      <c r="Y15" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>-1.65</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>14.45</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>25.45</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>25.45</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>25.45</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>25.45</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>-1.23</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>-1.17</v>
+      </c>
+      <c r="AU15" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="AV15" t="n">
+        <v>22.91</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B16" t="n">
+        <v>26</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建達(6118)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>41</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1499</v>
+      </c>
+      <c r="G16" t="n">
+        <v>36.56</v>
+      </c>
+      <c r="H16" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1422</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-83</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-0.0554</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
         <v>4</v>
       </c>
-      <c r="R15" t="n">
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>LOST</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>6118</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>建達</t>
+        </is>
+      </c>
+      <c r="Y16" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>-4.01</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>144</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>171</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>211</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>39.75</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>39.75</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>39.75</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>39.75</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>-3.69</v>
+      </c>
+      <c r="AU16" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="AV16" t="n">
+        <v>35.77</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B17" t="n">
+        <v>17</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>茂達(6138)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>現股</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>8</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1625</v>
+      </c>
+      <c r="G17" t="n">
+        <v>203</v>
+      </c>
+      <c r="H17" t="n">
+        <v>244.5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1950</v>
+      </c>
+      <c r="J17" t="n">
+        <v>325</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>台幣</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>-5</v>
+      </c>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>LOST</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>6138</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>茂達</t>
+        </is>
+      </c>
+      <c r="Y17" t="n">
+        <v>244.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>-6.68</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>-4.12</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>-8.77</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>178</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>177</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>139</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>278.5</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>278.5</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>278.5</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>278.5</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>-0.52</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="AU17" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="AV17" t="n">
+        <v>250.65</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B18" t="n">
+        <v>14</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>世界(5347)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>現股</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1472</v>
+      </c>
+      <c r="G18" t="n">
+        <v>163.5</v>
+      </c>
+      <c r="H18" t="n">
+        <v>159</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1426</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-46</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.0313</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
         <v>4</v>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>台幣</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr">
         <is>
           <t>LOST</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>5383</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>金利</t>
-        </is>
-      </c>
-      <c r="W15" t="n">
-        <v>40.5</v>
-      </c>
-      <c r="X15" t="n">
-        <v>-4.59</v>
-      </c>
-      <c r="Y15" t="n">
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>5347</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>世界</t>
+        </is>
+      </c>
+      <c r="Y18" t="n">
+        <v>159</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>-1.85</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>-3.64</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>-3.05</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>145.5</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>136</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>168</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>177</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>177</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>177</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AU18" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="AV18" t="n">
+        <v>159.3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B19" t="n">
+        <v>12</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>健策(3653)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>現股</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>7</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2987</v>
+      </c>
+      <c r="G19" t="n">
+        <v>426.43</v>
+      </c>
+      <c r="H19" t="n">
+        <v>428</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2986</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-0.0003</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2</v>
+      </c>
+      <c r="M19" t="n">
+        <v>8</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>台幣</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>-5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>LOST</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>3653</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>健策</t>
+        </is>
+      </c>
+      <c r="Y19" t="n">
+        <v>428</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>-2.51</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>-3.82</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>-2.62</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>42</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>378</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>285.5</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>276.5</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>202</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>461</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>461</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>461</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>461</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>-3.25</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>-1.48</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AU19" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="AV19" t="n">
+        <v>414.9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B20" t="n">
+        <v>9</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>利機(3444)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>現股</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>22</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1508</v>
+      </c>
+      <c r="G20" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="H20" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1431</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-77</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-0.0511</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>台幣</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>-5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>LOST</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>3444</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>利機</t>
+        </is>
+      </c>
+      <c r="Y20" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>-8.16</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>-11.2</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>-15.5</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>-4.25</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>86</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>37</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>35.45</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>-6.62</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>-15.8</v>
+      </c>
+      <c r="AU20" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="AV20" t="n">
+        <v>71.28</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>光磊(2340)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>現股</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>29</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1497</v>
+      </c>
+      <c r="G21" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="H21" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1670</v>
+      </c>
+      <c r="J21" t="n">
+        <v>173</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.1156</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>台幣</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>-5</v>
+      </c>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>LOST</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>2340</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>光磊</t>
+        </is>
+      </c>
+      <c r="Y21" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>-3.83</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>-2.53</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>-3.51</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>113</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>41.65</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>24.85</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>21.85</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="AU21" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="AV21" t="n">
+        <v>59.58</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B22" t="n">
+        <v>50</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>遠雄港(5607)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="n">
+        <v>5607</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="R22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>5607</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>遠雄港</t>
+        </is>
+      </c>
+      <c r="Y22" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>84</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>113</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>51.4</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>-5.44</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>-13.5</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>-2.15</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>-3.21</v>
+      </c>
+      <c r="AU22" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="AV22" t="n">
+        <v>58.41</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B23" t="n">
+        <v>51</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中租-KY(5871)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="n">
+        <v>5871</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>283.5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="n">
+        <v>10</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>5871</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>中租-KY</t>
+        </is>
+      </c>
+      <c r="Y23" t="n">
+        <v>263.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>239.5</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>223</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>196</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>283.5</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>283.5</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>283.5</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AU23" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="AV23" t="n">
+        <v>255.15</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B24" t="n">
+        <v>52</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>萬旭(6134)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="n">
+        <v>6134</v>
+      </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2</v>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>6134</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>萬旭</t>
+        </is>
+      </c>
+      <c r="Y24" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>66</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>82</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>126</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>-1.64</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>-1.04</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="AU24" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="AV24" t="n">
+        <v>28.89</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B25" t="n">
+        <v>49</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中美晶(5483)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="n">
+        <v>5483</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>225</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="n">
+        <v>10</v>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>5483</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>中美晶</t>
+        </is>
+      </c>
+      <c r="Y25" t="n">
+        <v>219</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>191</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>168</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>160</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>140</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>225</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>225</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>225</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>225</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU25" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="AV25" t="n">
+        <v>202.5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B26" t="n">
+        <v>48</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>系統電(5309)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="n">
+        <v>5309</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>5309</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>系統電</t>
+        </is>
+      </c>
+      <c r="Y26" t="n">
+        <v>45.15</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>-1.53</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>-0.66</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>-4.34</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>28.35</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>47</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>47</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>47</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>-4.8</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="AS26" t="inlineStr"/>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AU26" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="AV26" t="n">
+        <v>42.75</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B27" t="n">
+        <v>34</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>茂矽(2342)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="n">
+        <v>2342</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>57</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="n">
+        <v>6</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>2342</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>茂矽</t>
+        </is>
+      </c>
+      <c r="Y27" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>-4.14</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>-1.85</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>64.2</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>39</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>57</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>57</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>57</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>57</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>-1.56</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AU27" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="AV27" t="n">
+        <v>51.3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B28" t="n">
+        <v>46</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>光頡(3624)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="n">
+        <v>3624</v>
+      </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>3624</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>光頡</t>
+        </is>
+      </c>
+      <c r="Y28" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>34.15</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>26.05</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>-1.93</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="AU28" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="AV28" t="n">
+        <v>52.02</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B29" t="n">
+        <v>28</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>宏亞(1236)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="n">
+        <v>1236</v>
+      </c>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="n">
+        <v>10</v>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>1236</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>宏亞</t>
+        </is>
+      </c>
+      <c r="Y29" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>82.8</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>59.4</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AU29" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="AV29" t="n">
+        <v>23.13</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B30" t="n">
+        <v>29</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南亞(1303)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="n">
+        <v>1303</v>
+      </c>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="n">
+        <v>8</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>1303</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>南亞</t>
+        </is>
+      </c>
+      <c r="Y30" t="n">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>-2.08</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>-1.28</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>82</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="AU30" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="AV30" t="n">
+        <v>83.79000000000001</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B31" t="n">
+        <v>30</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>力肯(1570)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="n">
+        <v>1570</v>
+      </c>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="n">
+        <v>28.45</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="n">
+        <v>8</v>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>1570</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>力肯</t>
+        </is>
+      </c>
+      <c r="Y31" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>63.8</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>102</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>28.45</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>28.45</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>28.45</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>28.45</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AU31" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="AV31" t="n">
+        <v>25.61</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B32" t="n">
+        <v>31</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中電(1611)</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="n">
+        <v>1611</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" t="n">
+        <v>6</v>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>1611</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>中電</t>
+        </is>
+      </c>
+      <c r="Y32" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="AU32" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="AV32" t="n">
+        <v>17.37</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B33" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>和成(1810)</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="n">
+        <v>1810</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>17.45</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="n">
+        <v>6</v>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>1810</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>和成</t>
+        </is>
+      </c>
+      <c r="Y33" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>-2.98</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>17.45</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>17.45</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>17.45</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>17.45</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AU33" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="AV33" t="n">
+        <v>15.71</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B34" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>光罩(2338)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="n">
+        <v>2338</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>117</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="n">
+        <v>10</v>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>2338</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>光罩</t>
+        </is>
+      </c>
+      <c r="Y34" t="n">
+        <v>112</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>171</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>117</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>117</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>117</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>117</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="AU34" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="AV34" t="n">
+        <v>105.3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B35" t="n">
+        <v>35</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>技嘉(2376)</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="n">
+        <v>2376</v>
+      </c>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="n">
+        <v>148</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="n">
+        <v>10</v>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>2376</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>技嘉</t>
+        </is>
+      </c>
+      <c r="Y35" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>127</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>83</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>148</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>148</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>148</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>148</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU35" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="AV35" t="n">
+        <v>133.2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B36" t="n">
+        <v>47</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>三福化(4755)</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="n">
+        <v>4755</v>
+      </c>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="n">
+        <v>101</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="n">
+        <v>10</v>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>4755</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>三福化</t>
+        </is>
+      </c>
+      <c r="Y36" t="n">
+        <v>101</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>77</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>101</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>101</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>101</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU36" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="AV36" t="n">
+        <v>90.90000000000001</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B37" t="n">
+        <v>36</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>瑞昱(2379)</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="n">
+        <v>2379</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>621</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="n">
+        <v>8</v>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>2379</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>瑞昱</t>
+        </is>
+      </c>
+      <c r="Y37" t="n">
+        <v>565</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>-2.08</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>506</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>445</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>445</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>381.5</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>581</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>581</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>621</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>621</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>22</v>
+      </c>
+      <c r="AS37" t="n">
         <v>-0.25</v>
       </c>
-      <c r="Z15" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>33</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>73.8</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="AG15" t="n">
+      <c r="AT37" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AU37" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="AV37" t="n">
+        <v>558.9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B38" t="n">
+        <v>38</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鉅祥(2476)</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="n">
+        <v>2476</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>69</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="n">
+        <v>10</v>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>2476</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>鉅祥</t>
+        </is>
+      </c>
+      <c r="Y38" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>93.2</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>225</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>19.85</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>69</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>69</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>69</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AU38" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="AV38" t="n">
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B39" t="n">
+        <v>39</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>華航(2610)</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="n">
+        <v>2610</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>31.15</v>
+      </c>
+      <c r="R39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T39" t="n">
+        <v>-2</v>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>2610</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>華航</t>
+        </is>
+      </c>
+      <c r="Y39" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>-5.16</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>164</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>31.15</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>31.15</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>31.15</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>31.15</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>-2.39</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>-5.02</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>-2.16</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>-4.58</v>
+      </c>
+      <c r="AU39" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="AV39" t="n">
+        <v>28.04</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B40" t="n">
+        <v>40</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>長榮航(2618)</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="n">
+        <v>2618</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q40" t="n">
         <v>29.4</v>
       </c>
-      <c r="AH15" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>21.75</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>43.85</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="AN15" t="inlineStr"/>
-      <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="inlineStr">
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="n">
+        <v>6</v>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>2618</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>長榮航</t>
+        </is>
+      </c>
+      <c r="Y40" t="n">
+        <v>28.65</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>61</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>115</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>17.05</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>17.05</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>-4.72</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>-3.08</v>
+      </c>
+      <c r="AU40" t="inlineStr">
         <is>
           <t>both</t>
         </is>
+      </c>
+      <c r="AV40" t="n">
+        <v>26.46</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B41" t="n">
+        <v>41</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>奇鋐(3017)</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="n">
+        <v>3017</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="n">
+        <v>10</v>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>3017</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>奇鋐</t>
+        </is>
+      </c>
+      <c r="Y41" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AU41" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="AV41" t="n">
+        <v>83.06999999999999</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B42" t="n">
+        <v>42</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>力特(3051)</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="n">
+        <v>3051</v>
+      </c>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>3051</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>力特</t>
+        </is>
+      </c>
+      <c r="Y42" t="n">
+        <v>13.55</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>63.8</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>136</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>13.55</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>13.55</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>-0.72</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>-2.06</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU42" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="AV42" t="n">
+        <v>12.51</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B43" t="n">
+        <v>43</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>晶宏(3141)</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="n">
+        <v>3141</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>285</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="n">
+        <v>10</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>3141</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>晶宏</t>
+        </is>
+      </c>
+      <c r="Y43" t="n">
+        <v>258</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>-1.71</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>194</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>543</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>212.5</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>85</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>285</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>285</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>285</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>285</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AU43" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="AV43" t="n">
+        <v>256.5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B44" t="n">
+        <v>44</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>景碩(3189)</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="n">
+        <v>3189</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>257.5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>-5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>3189</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>景碩</t>
+        </is>
+      </c>
+      <c r="Y44" t="n">
+        <v>237</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>-1.66</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>-2.27</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>173</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>220</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>181</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>113</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>257.5</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>257.5</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>257.5</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>257.5</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>-8.9</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>-5.41</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AU44" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="AV44" t="n">
+        <v>231.75</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B45" t="n">
+        <v>45</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>昇達科(3491)</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="n">
+        <v>3491</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>188</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="n">
+        <v>6</v>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>3491</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>昇達科</t>
+        </is>
+      </c>
+      <c r="Y45" t="n">
+        <v>182.5</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>158</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>177</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>142</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>143</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>188</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>188</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>188</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>188</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>-1.65</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>-8.140000000000001</v>
+      </c>
+      <c r="AU45" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="AV45" t="n">
+        <v>169.2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B46" t="n">
+        <v>37</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>新美齊(2442)</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="n">
+        <v>2442</v>
+      </c>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="n">
+        <v>10</v>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>2442</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>新美齊</t>
+        </is>
+      </c>
+      <c r="Y46" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AU46" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="AV46" t="n">
+        <v>12.38</v>
       </c>
     </row>
   </sheetData>
